--- a/result/se results.xlsx
+++ b/result/se results.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC98A4FD-B4A7-4624-8DCE-0EADB151B700}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D73CBA-2C1E-47CE-B04E-1C06B99DB574}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="1" r:id="rId1"/>
-    <sheet name="res" sheetId="2" r:id="rId2"/>
-    <sheet name="ind" sheetId="3" r:id="rId3"/>
-    <sheet name="comm" sheetId="4" r:id="rId4"/>
-    <sheet name="mixed" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId2"/>
+    <sheet name="res" sheetId="2" r:id="rId3"/>
+    <sheet name="ind" sheetId="3" r:id="rId4"/>
+    <sheet name="comm" sheetId="4" r:id="rId5"/>
+    <sheet name="mixed" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="116">
   <si>
     <t>p_from_mw</t>
   </si>
@@ -373,6 +374,12 @@
   <si>
     <t>with gen at 24, 33, 18, 57</t>
   </si>
+  <si>
+    <t>2/10 -&gt; 3/20</t>
+  </si>
+  <si>
+    <t>0.15MW all</t>
+  </si>
 </sst>
 </file>
 
@@ -442,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -453,6 +460,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,7 +743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
@@ -6650,11 +6658,326 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09A2EE5-857B-4EA8-A368-C7032DBF00B4}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>61</v>
+      </c>
+      <c r="B1">
+        <f>-A1*$B$20-INT(3*A1/20)*$C$20</f>
+        <v>-0.1057</v>
+      </c>
+      <c r="H1">
+        <v>-0.2</v>
+      </c>
+      <c r="I1">
+        <f>+H1*0.825</f>
+        <v>-0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>83</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B17" si="0">-A2*$B$20-INT(3*A2/20)*$C$20</f>
+        <v>-0.1421</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ref="I2:I19" si="1">+H2*0.825</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>76</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>-0.13019999999999998</v>
+      </c>
+      <c r="H3">
+        <v>-9.9999999999999992E-2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>-8.249999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>85</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>-0.14350000000000002</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>82</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>-0.1414</v>
+      </c>
+      <c r="H5">
+        <v>-0.1</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>-8.2500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>61</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>-0.1057</v>
+      </c>
+      <c r="H6">
+        <v>-0.15</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>-0.12374999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>72</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>-0.12040000000000001</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>74</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>-0.1288</v>
+      </c>
+      <c r="H8">
+        <v>-0.2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>-0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>79</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>-0.1323</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>-0.10780000000000001</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>63</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>-0.1071</v>
+      </c>
+      <c r="H11">
+        <v>-0.1</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>-8.2500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>83</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>-0.1421</v>
+      </c>
+      <c r="H12">
+        <v>-0.16</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>-0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>58</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>-9.6599999999999991E-2</v>
+      </c>
+      <c r="H13">
+        <v>-0.18</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>-0.14849999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>62</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>-0.10639999999999999</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>88</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>-0.15260000000000001</v>
+      </c>
+      <c r="H15">
+        <v>-0.13</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>-0.10725</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>86</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>-0.14419999999999999</v>
+      </c>
+      <c r="H16">
+        <v>-0.15</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>-0.12374999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>-9.4500000000000001E-2</v>
+      </c>
+      <c r="H17">
+        <v>-0.3</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>-0.24749999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>-0.25</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>-0.20624999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>-9.9999999999999992E-2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>-8.249999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f>0.7/1000</f>
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="C20">
+        <f>7/1000</f>
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1AD023F-DD84-4004-90DA-81FAF9B74DDB}">
-  <dimension ref="A1:R102"/>
+  <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7751,6 +8074,9 @@
       <c r="G22" t="s">
         <v>85</v>
       </c>
+      <c r="J22" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -8684,151 +9010,669 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>1</v>
+      </c>
       <c r="C51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>2.1010960000000001</v>
+      </c>
+      <c r="C52" s="1">
+        <v>5.1854389999999998E-4</v>
+      </c>
+      <c r="D52">
+        <v>-2.100889</v>
+      </c>
+      <c r="E52">
+        <v>-4.1199999999999999E-4</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2.065554E-4</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1.0608279999999999E-4</v>
+      </c>
+      <c r="H52">
+        <v>0.110196</v>
+      </c>
+      <c r="I52">
+        <v>0.110196</v>
+      </c>
+      <c r="J52">
+        <v>0.110196</v>
+      </c>
+      <c r="K52">
+        <v>1.0007520000000001</v>
+      </c>
+      <c r="L52">
+        <v>-4.7516999999999997E-2</v>
+      </c>
+      <c r="M52">
+        <v>1.000653</v>
+      </c>
+      <c r="N52">
+        <v>-5.0409000000000002E-2</v>
+      </c>
+      <c r="O52">
+        <v>73.464050999999998</v>
+      </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>2.100889</v>
+      </c>
+      <c r="C53" s="1">
+        <v>4.1264140000000002E-4</v>
+      </c>
+      <c r="D53">
+        <v>-2.1006830000000001</v>
+      </c>
+      <c r="E53">
+        <v>-3.0699999999999998E-4</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2.065554E-4</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1.0608279999999999E-4</v>
+      </c>
+      <c r="H53">
+        <v>0.110196</v>
+      </c>
+      <c r="I53">
+        <v>0.110196</v>
+      </c>
+      <c r="J53">
+        <v>0.110196</v>
+      </c>
+      <c r="K53">
+        <v>1.000653</v>
+      </c>
+      <c r="L53">
+        <v>-5.0409000000000002E-2</v>
+      </c>
+      <c r="M53">
+        <v>1.0005550000000001</v>
+      </c>
+      <c r="N53">
+        <v>-5.3301000000000001E-2</v>
+      </c>
+      <c r="O53">
+        <v>73.464055999999999</v>
+      </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>1.994982</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3.0599840000000001E-4</v>
+      </c>
+      <c r="D54">
+        <v>-1.994796</v>
+      </c>
+      <c r="E54">
+        <v>-2.1000000000000001E-4</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1.862918E-4</v>
+      </c>
+      <c r="G54" s="1">
+        <v>9.5675769999999994E-5</v>
+      </c>
+      <c r="H54">
+        <v>0.10465099999999999</v>
+      </c>
+      <c r="I54">
+        <v>0.10465099999999999</v>
+      </c>
+      <c r="J54">
+        <v>0.10465099999999999</v>
+      </c>
+      <c r="K54">
+        <v>1.0005550000000001</v>
+      </c>
+      <c r="L54">
+        <v>-5.3301000000000001E-2</v>
+      </c>
+      <c r="M54">
+        <v>1.000462</v>
+      </c>
+      <c r="N54">
+        <v>-5.6048000000000001E-2</v>
+      </c>
+      <c r="O54">
+        <v>69.767539999999997</v>
+      </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+      <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="B55">
+        <v>1.7448870000000001</v>
+      </c>
+      <c r="C55" s="1">
+        <v>2.0752650000000001E-4</v>
+      </c>
+      <c r="D55">
+        <v>-1.7447440000000001</v>
+      </c>
+      <c r="E55">
+        <v>-1.34E-4</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1.4253820000000001E-4</v>
+      </c>
+      <c r="G55" s="1">
+        <v>7.3204820000000002E-5</v>
+      </c>
+      <c r="H55">
+        <v>9.1540999999999997E-2</v>
+      </c>
+      <c r="I55">
+        <v>9.1540999999999997E-2</v>
+      </c>
+      <c r="J55">
+        <v>9.1540999999999997E-2</v>
+      </c>
+      <c r="K55">
+        <v>1.000462</v>
+      </c>
+      <c r="L55">
+        <v>-5.6048000000000001E-2</v>
+      </c>
+      <c r="M55">
+        <v>1.00038</v>
+      </c>
+      <c r="N55">
+        <v>-5.8451999999999997E-2</v>
+      </c>
+      <c r="O55">
+        <v>61.027036000000003</v>
+      </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+      <c r="A56">
+        <v>5</v>
+      </c>
+      <c r="B56">
+        <v>1.1629069999999999</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1.145185E-4</v>
+      </c>
+      <c r="D56">
+        <v>-1.162844</v>
+      </c>
+      <c r="E56">
+        <v>-8.2000000000000001E-5</v>
+      </c>
+      <c r="F56" s="1">
+        <v>6.3322489999999995E-5</v>
+      </c>
+      <c r="G56" s="1">
+        <v>3.2521180000000002E-5</v>
+      </c>
+      <c r="H56">
+        <v>6.1013999999999999E-2</v>
+      </c>
+      <c r="I56">
+        <v>6.1013999999999999E-2</v>
+      </c>
+      <c r="J56">
+        <v>6.1013999999999999E-2</v>
+      </c>
+      <c r="K56">
+        <v>1.00038</v>
+      </c>
+      <c r="L56">
+        <v>-5.8451999999999997E-2</v>
+      </c>
+      <c r="M56">
+        <v>1.0003249999999999</v>
+      </c>
+      <c r="N56">
+        <v>-6.0054000000000003E-2</v>
+      </c>
+      <c r="O56">
+        <v>61.013627999999997</v>
+      </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
+      <c r="A57">
+        <v>6</v>
+      </c>
+      <c r="B57">
+        <v>1.0193810000000001</v>
+      </c>
+      <c r="C57" s="1">
+        <v>7.9738329999999997E-5</v>
+      </c>
+      <c r="D57">
+        <v>-1.0193319999999999</v>
+      </c>
+      <c r="E57">
+        <v>-5.5000000000000002E-5</v>
+      </c>
+      <c r="F57" s="1">
+        <v>4.8661759999999999E-5</v>
+      </c>
+      <c r="G57" s="1">
+        <v>2.4991720000000001E-5</v>
+      </c>
+      <c r="H57">
+        <v>5.3485999999999999E-2</v>
+      </c>
+      <c r="I57">
+        <v>5.3485999999999999E-2</v>
+      </c>
+      <c r="J57">
+        <v>5.3485999999999999E-2</v>
+      </c>
+      <c r="K57">
+        <v>1.0003249999999999</v>
+      </c>
+      <c r="L57">
+        <v>-6.0054000000000003E-2</v>
+      </c>
+      <c r="M57">
+        <v>1.000278</v>
+      </c>
+      <c r="N57">
+        <v>-6.1457999999999999E-2</v>
+      </c>
+      <c r="O57">
+        <v>53.486203000000003</v>
+      </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
+      <c r="O58">
+        <f>+SUM(O52:O57)/6</f>
+        <v>65.370418999999998</v>
+      </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>5</v>
+      </c>
       <c r="C59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>1.766073</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3.7428659999999997E-4</v>
+      </c>
+      <c r="D60">
+        <v>-1.765927</v>
+      </c>
+      <c r="E60">
+        <v>-2.99E-4</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1.459392E-4</v>
+      </c>
+      <c r="G60" s="1">
+        <v>7.4951500000000002E-5</v>
+      </c>
+      <c r="H60">
+        <v>9.2626E-2</v>
+      </c>
+      <c r="I60">
+        <v>9.2626E-2</v>
+      </c>
+      <c r="J60">
+        <v>9.2626E-2</v>
+      </c>
+      <c r="K60">
+        <v>1.00074</v>
+      </c>
+      <c r="L60">
+        <v>-4.6170000000000003E-2</v>
+      </c>
+      <c r="M60">
+        <v>1.000658</v>
+      </c>
+      <c r="N60">
+        <v>-4.8600999999999998E-2</v>
+      </c>
+      <c r="O60">
+        <v>61.750802</v>
+      </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>1.7659260000000001</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2.9930609999999998E-4</v>
+      </c>
+      <c r="D61">
+        <v>-1.765781</v>
+      </c>
+      <c r="E61">
+        <v>-2.24E-4</v>
+      </c>
+      <c r="F61" s="1">
+        <v>1.459392E-4</v>
+      </c>
+      <c r="G61" s="1">
+        <v>7.4951480000000001E-5</v>
+      </c>
+      <c r="H61">
+        <v>9.2626E-2</v>
+      </c>
+      <c r="I61">
+        <v>9.2626E-2</v>
+      </c>
+      <c r="J61">
+        <v>9.2626E-2</v>
+      </c>
+      <c r="K61">
+        <v>1.000658</v>
+      </c>
+      <c r="L61">
+        <v>-4.8600999999999998E-2</v>
+      </c>
+      <c r="M61">
+        <v>1.000575</v>
+      </c>
+      <c r="N61">
+        <v>-5.1032000000000001E-2</v>
+      </c>
+      <c r="O61">
+        <v>61.750793000000002</v>
+      </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>1.6600790000000001</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2.233995E-4</v>
+      </c>
+      <c r="D62">
+        <v>-1.65995</v>
+      </c>
+      <c r="E62">
+        <v>-1.5699999999999999E-4</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1.2899E-4</v>
+      </c>
+      <c r="G62" s="1">
+        <v>6.6246709999999998E-5</v>
+      </c>
+      <c r="H62">
+        <v>8.7081000000000006E-2</v>
+      </c>
+      <c r="I62">
+        <v>8.7081000000000006E-2</v>
+      </c>
+      <c r="J62">
+        <v>8.7081000000000006E-2</v>
+      </c>
+      <c r="K62">
+        <v>1.000575</v>
+      </c>
+      <c r="L62">
+        <v>-5.1032000000000001E-2</v>
+      </c>
+      <c r="M62">
+        <v>1.000497</v>
+      </c>
+      <c r="N62">
+        <v>-5.3317999999999997E-2</v>
+      </c>
+      <c r="O62">
+        <v>58.054324000000001</v>
+      </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="A63">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>1.410039</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1.531968E-4</v>
+      </c>
+      <c r="D63">
+        <v>-1.4099459999999999</v>
+      </c>
+      <c r="E63">
+        <v>-1.05E-4</v>
+      </c>
+      <c r="F63" s="1">
+        <v>9.3073959999999994E-5</v>
+      </c>
+      <c r="G63" s="1">
+        <v>4.7800950000000002E-5</v>
+      </c>
+      <c r="H63">
+        <v>7.3970999999999995E-2</v>
+      </c>
+      <c r="I63">
+        <v>7.3970999999999995E-2</v>
+      </c>
+      <c r="J63">
+        <v>7.3970999999999995E-2</v>
+      </c>
+      <c r="K63">
+        <v>1.000497</v>
+      </c>
+      <c r="L63">
+        <v>-5.3317999999999997E-2</v>
+      </c>
+      <c r="M63">
+        <v>1.0004310000000001</v>
+      </c>
+      <c r="N63">
+        <v>-5.5259999999999997E-2</v>
+      </c>
+      <c r="O63">
+        <v>49.314050999999999</v>
+      </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>5</v>
+      </c>
+      <c r="B64">
+        <v>0.82809900000000003</v>
+      </c>
+      <c r="C64" s="1">
+        <v>8.1611020000000003E-5</v>
+      </c>
+      <c r="D64">
+        <v>-0.828067</v>
+      </c>
+      <c r="E64">
+        <v>-6.4999999999999994E-5</v>
+      </c>
+      <c r="F64" s="1">
+        <v>3.2106149999999998E-5</v>
+      </c>
+      <c r="G64" s="1">
+        <v>1.648908E-5</v>
+      </c>
+      <c r="H64">
+        <v>4.3444999999999998E-2</v>
+      </c>
+      <c r="I64">
+        <v>4.3444999999999998E-2</v>
+      </c>
+      <c r="J64">
+        <v>4.3444999999999998E-2</v>
+      </c>
+      <c r="K64">
+        <v>1.0004310000000001</v>
+      </c>
+      <c r="L64">
+        <v>-5.5259999999999997E-2</v>
+      </c>
+      <c r="M64">
+        <v>1.0003919999999999</v>
+      </c>
+      <c r="N64">
+        <v>-5.6401E-2</v>
+      </c>
+      <c r="O64">
+        <v>43.445216000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>6</v>
+      </c>
+      <c r="B65">
+        <v>0.68460200000000004</v>
+      </c>
+      <c r="C65" s="1">
+        <v>6.1980040000000002E-5</v>
+      </c>
+      <c r="D65">
+        <v>-0.68457999999999997</v>
+      </c>
+      <c r="E65">
+        <v>-5.1E-5</v>
+      </c>
+      <c r="F65" s="1">
+        <v>2.1944900000000001E-5</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1.127047E-5</v>
+      </c>
+      <c r="H65">
+        <v>3.5917999999999999E-2</v>
+      </c>
+      <c r="I65">
+        <v>3.5917999999999999E-2</v>
+      </c>
+      <c r="J65">
+        <v>3.5917999999999999E-2</v>
+      </c>
+      <c r="K65">
+        <v>1.0003919999999999</v>
+      </c>
+      <c r="L65">
+        <v>-5.6401E-2</v>
+      </c>
+      <c r="M65">
+        <v>1.0003599999999999</v>
+      </c>
+      <c r="N65">
+        <v>-5.7343999999999999E-2</v>
+      </c>
+      <c r="O65">
+        <v>35.918205999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="O66">
+        <f>+SUM(O60:O65)/6</f>
+        <v>51.70556533333334</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -8942,13 +9786,93 @@
       <c r="C102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+    </row>
+    <row r="104" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+    </row>
+    <row r="105" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+    </row>
+    <row r="108" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+    </row>
+    <row r="117" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+    </row>
+    <row r="118" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB16B21B-96DF-4E02-BB33-EBF8023E4AEB}">
   <dimension ref="A1:R86"/>
   <sheetViews>
@@ -10432,12 +11356,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680CED45-BBCB-4BBC-A2E1-9396C2E04CD6}">
-  <dimension ref="A1:R71"/>
+  <dimension ref="A1:R87"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+      <selection activeCell="T60" sqref="T60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11684,6 +12608,9 @@
       <c r="G27" t="s">
         <v>94</v>
       </c>
+      <c r="I27" s="8">
+        <v>0.82499999999999996</v>
+      </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F28">
@@ -12741,142 +13668,850 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C51" s="1"/>
+      <c r="C51" s="7">
+        <v>4</v>
+      </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
+      <c r="A52">
+        <v>23</v>
+      </c>
+      <c r="B52">
+        <v>1.7422150000000001</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2.7894859999999999E-3</v>
+      </c>
+      <c r="D52">
+        <v>-1.7418450000000001</v>
+      </c>
+      <c r="E52" s="1">
+        <v>-2.5755349999999999E-3</v>
+      </c>
+      <c r="F52" s="1">
+        <v>3.6951090000000001E-4</v>
+      </c>
+      <c r="G52" s="1">
+        <v>2.1395109999999999E-4</v>
+      </c>
+      <c r="H52">
+        <v>9.1378000000000001E-2</v>
+      </c>
+      <c r="I52">
+        <v>9.1378000000000001E-2</v>
+      </c>
+      <c r="J52">
+        <v>9.1378000000000001E-2</v>
+      </c>
+      <c r="K52">
+        <v>1.0007060000000001</v>
+      </c>
+      <c r="L52">
+        <v>-4.7784E-2</v>
+      </c>
+      <c r="M52">
+        <v>1.000494</v>
+      </c>
+      <c r="N52">
+        <v>-5.4801999999999997E-2</v>
+      </c>
+      <c r="O52">
+        <v>73.102502999999999</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q52">
+        <v>25</v>
+      </c>
+      <c r="R52">
+        <v>26</v>
+      </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
+      <c r="A53">
+        <v>24</v>
+      </c>
+      <c r="B53">
+        <v>1.7418499999999999</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2.5783889999999999E-3</v>
+      </c>
+      <c r="D53">
+        <v>-1.7414810000000001</v>
+      </c>
+      <c r="E53" s="1">
+        <v>-2.364437E-3</v>
+      </c>
+      <c r="F53" s="1">
+        <v>3.6951300000000002E-4</v>
+      </c>
+      <c r="G53" s="1">
+        <v>2.1395229999999999E-4</v>
+      </c>
+      <c r="H53">
+        <v>9.1378000000000001E-2</v>
+      </c>
+      <c r="I53">
+        <v>9.1378000000000001E-2</v>
+      </c>
+      <c r="J53">
+        <v>9.1378000000000001E-2</v>
+      </c>
+      <c r="K53">
+        <v>1.000494</v>
+      </c>
+      <c r="L53">
+        <v>-5.4801999999999997E-2</v>
+      </c>
+      <c r="M53">
+        <v>1.0002819999999999</v>
+      </c>
+      <c r="N53">
+        <v>-6.1823000000000003E-2</v>
+      </c>
+      <c r="O53">
+        <v>73.102710000000002</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q53">
+        <v>26</v>
+      </c>
+      <c r="R53">
+        <v>27</v>
+      </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
+      <c r="A54">
+        <v>25</v>
+      </c>
+      <c r="B54">
+        <v>1.576543</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2.3691039999999999E-3</v>
+      </c>
+      <c r="D54">
+        <v>-1.5762400000000001</v>
+      </c>
+      <c r="E54" s="1">
+        <v>-2.1937599999999999E-3</v>
+      </c>
+      <c r="F54" s="1">
+        <v>3.0283360000000001E-4</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1.7534420000000001E-4</v>
+      </c>
+      <c r="H54">
+        <v>8.2724000000000006E-2</v>
+      </c>
+      <c r="I54">
+        <v>8.2724000000000006E-2</v>
+      </c>
+      <c r="J54">
+        <v>8.2724000000000006E-2</v>
+      </c>
+      <c r="K54">
+        <v>1.0002819999999999</v>
+      </c>
+      <c r="L54">
+        <v>-6.1823000000000003E-2</v>
+      </c>
+      <c r="M54">
+        <v>1.000089</v>
+      </c>
+      <c r="N54">
+        <v>-6.8180000000000004E-2</v>
+      </c>
+      <c r="O54">
+        <v>66.179068999999998</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q54">
+        <v>27</v>
+      </c>
+      <c r="R54">
+        <v>28</v>
+      </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+      <c r="A55">
+        <v>26</v>
+      </c>
+      <c r="B55">
+        <v>1.213554</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1.979013E-3</v>
+      </c>
+      <c r="D55">
+        <v>-1.2133750000000001</v>
+      </c>
+      <c r="E55" s="1">
+        <v>-1.875077E-3</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1.7950560000000001E-4</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1.039358E-4</v>
+      </c>
+      <c r="H55">
+        <v>6.3688999999999996E-2</v>
+      </c>
+      <c r="I55">
+        <v>6.3688999999999996E-2</v>
+      </c>
+      <c r="J55">
+        <v>6.3688999999999996E-2</v>
+      </c>
+      <c r="K55">
+        <v>1.000089</v>
+      </c>
+      <c r="L55">
+        <v>-6.8180000000000004E-2</v>
+      </c>
+      <c r="M55">
+        <v>0.99994099999999997</v>
+      </c>
+      <c r="N55">
+        <v>-7.3074E-2</v>
+      </c>
+      <c r="O55">
+        <v>50.951579000000002</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q55">
+        <v>28</v>
+      </c>
+      <c r="R55">
+        <v>29</v>
+      </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
+      <c r="A56">
+        <v>27</v>
+      </c>
+      <c r="B56">
+        <v>1.1311789999999999</v>
+      </c>
+      <c r="C56" s="1">
+        <v>1.882608E-3</v>
+      </c>
+      <c r="D56">
+        <v>-1.1310229999999999</v>
+      </c>
+      <c r="E56" s="1">
+        <v>-1.7922770000000001E-3</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1.560094E-4</v>
+      </c>
+      <c r="G56" s="1">
+        <v>9.0331270000000005E-5</v>
+      </c>
+      <c r="H56">
+        <v>5.9374999999999997E-2</v>
+      </c>
+      <c r="I56">
+        <v>5.9374999999999997E-2</v>
+      </c>
+      <c r="J56">
+        <v>5.9374999999999997E-2</v>
+      </c>
+      <c r="K56">
+        <v>0.99994099999999997</v>
+      </c>
+      <c r="L56">
+        <v>-7.3074E-2</v>
+      </c>
+      <c r="M56">
+        <v>0.999803</v>
+      </c>
+      <c r="N56">
+        <v>-7.7636999999999998E-2</v>
+      </c>
+      <c r="O56">
+        <v>47.500050000000002</v>
+      </c>
+      <c r="P56" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q56">
+        <v>29</v>
+      </c>
+      <c r="R56">
+        <v>30</v>
+      </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
+      <c r="A57">
+        <v>37</v>
+      </c>
+      <c r="B57">
+        <v>0.47561999999999999</v>
+      </c>
+      <c r="C57" s="1">
+        <v>6.4027050000000003E-4</v>
+      </c>
+      <c r="D57">
+        <v>-0.47554600000000002</v>
+      </c>
+      <c r="E57" s="1">
+        <v>-6.2225970000000003E-4</v>
+      </c>
+      <c r="F57" s="1">
+        <v>7.4102249999999993E-5</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1.8010769999999998E-5</v>
+      </c>
+      <c r="H57">
+        <v>2.4968000000000001E-2</v>
+      </c>
+      <c r="I57">
+        <v>2.4968000000000001E-2</v>
+      </c>
+      <c r="J57">
+        <v>2.4968000000000001E-2</v>
+      </c>
+      <c r="K57">
+        <v>0.999803</v>
+      </c>
+      <c r="L57">
+        <v>-7.7636999999999998E-2</v>
+      </c>
+      <c r="M57">
+        <v>0.99964699999999995</v>
+      </c>
+      <c r="N57">
+        <v>-7.9795000000000005E-2</v>
+      </c>
+      <c r="O57">
+        <v>49.936988999999997</v>
+      </c>
+      <c r="P57" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q57">
+        <v>30</v>
+      </c>
+      <c r="R57">
+        <v>40</v>
+      </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
+      <c r="O58">
+        <f>+SUM(O52:O57)/6</f>
+        <v>60.128816666666665</v>
+      </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C59" s="1"/>
+      <c r="C59" s="7">
+        <v>5</v>
+      </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
+      <c r="A60">
+        <v>23</v>
+      </c>
+      <c r="B60">
+        <v>1.392552</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2.5504479999999999E-3</v>
+      </c>
+      <c r="D60">
+        <v>-1.3923160000000001</v>
+      </c>
+      <c r="E60" s="1">
+        <v>-2.4137439999999998E-3</v>
+      </c>
+      <c r="F60" s="1">
+        <v>2.361001E-4</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1.3670469999999999E-4</v>
+      </c>
+      <c r="H60">
+        <v>7.3042999999999997E-2</v>
+      </c>
+      <c r="I60">
+        <v>7.3042999999999997E-2</v>
+      </c>
+      <c r="J60">
+        <v>7.3042999999999997E-2</v>
+      </c>
+      <c r="K60">
+        <v>1.00065</v>
+      </c>
+      <c r="L60">
+        <v>-4.6383000000000001E-2</v>
+      </c>
+      <c r="M60">
+        <v>1.00048</v>
+      </c>
+      <c r="N60">
+        <v>-5.1990000000000001E-2</v>
+      </c>
+      <c r="O60">
+        <v>58.434145000000001</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q60">
+        <v>25</v>
+      </c>
+      <c r="R60">
+        <v>26</v>
+      </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+      <c r="A61">
+        <v>24</v>
+      </c>
+      <c r="B61">
+        <v>1.3923190000000001</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2.415468E-3</v>
+      </c>
+      <c r="D61">
+        <v>-1.392083</v>
+      </c>
+      <c r="E61" s="1">
+        <v>-2.2787630000000001E-3</v>
+      </c>
+      <c r="F61" s="1">
+        <v>2.3610109999999999E-4</v>
+      </c>
+      <c r="G61" s="1">
+        <v>1.3670530000000001E-4</v>
+      </c>
+      <c r="H61">
+        <v>7.3042999999999997E-2</v>
+      </c>
+      <c r="I61">
+        <v>7.3042999999999997E-2</v>
+      </c>
+      <c r="J61">
+        <v>7.3042999999999997E-2</v>
+      </c>
+      <c r="K61">
+        <v>1.00048</v>
+      </c>
+      <c r="L61">
+        <v>-5.1990000000000001E-2</v>
+      </c>
+      <c r="M61">
+        <v>1.00031</v>
+      </c>
+      <c r="N61">
+        <v>-5.7599999999999998E-2</v>
+      </c>
+      <c r="O61">
+        <v>58.434269999999998</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q61">
+        <v>26</v>
+      </c>
+      <c r="R61">
+        <v>27</v>
+      </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="A62">
+        <v>25</v>
+      </c>
+      <c r="B62">
+        <v>1.227141</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2.2812069999999999E-3</v>
+      </c>
+      <c r="D62">
+        <v>-1.2269570000000001</v>
+      </c>
+      <c r="E62" s="1">
+        <v>-2.1749780000000002E-3</v>
+      </c>
+      <c r="F62" s="1">
+        <v>1.8346660000000001E-4</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1.062293E-4</v>
+      </c>
+      <c r="H62">
+        <v>6.4388000000000001E-2</v>
+      </c>
+      <c r="I62">
+        <v>6.4388000000000001E-2</v>
+      </c>
+      <c r="J62">
+        <v>6.4388000000000001E-2</v>
+      </c>
+      <c r="K62">
+        <v>1.00031</v>
+      </c>
+      <c r="L62">
+        <v>-5.7599999999999998E-2</v>
+      </c>
+      <c r="M62">
+        <v>1.0001599999999999</v>
+      </c>
+      <c r="N62">
+        <v>-6.2545000000000003E-2</v>
+      </c>
+      <c r="O62">
+        <v>51.510668000000003</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q62">
+        <v>27</v>
+      </c>
+      <c r="R62">
+        <v>28</v>
+      </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="A63">
+        <v>26</v>
+      </c>
+      <c r="B63">
+        <v>1.014192</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1.9450660000000001E-3</v>
+      </c>
+      <c r="D63">
+        <v>-1.0140670000000001</v>
+      </c>
+      <c r="E63" s="1">
+        <v>-1.872484E-3</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1.2535420000000001E-4</v>
+      </c>
+      <c r="G63" s="1">
+        <v>7.2581529999999998E-5</v>
+      </c>
+      <c r="H63">
+        <v>5.3222999999999999E-2</v>
+      </c>
+      <c r="I63">
+        <v>5.3222999999999999E-2</v>
+      </c>
+      <c r="J63">
+        <v>5.3222999999999999E-2</v>
+      </c>
+      <c r="K63">
+        <v>1.0001599999999999</v>
+      </c>
+      <c r="L63">
+        <v>-6.2545000000000003E-2</v>
+      </c>
+      <c r="M63">
+        <v>1.0000370000000001</v>
+      </c>
+      <c r="N63">
+        <v>-6.6631999999999997E-2</v>
+      </c>
+      <c r="O63">
+        <v>42.578274999999998</v>
+      </c>
+      <c r="P63" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q63">
+        <v>28</v>
+      </c>
+      <c r="R63">
+        <v>29</v>
+      </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="C64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>27</v>
+      </c>
+      <c r="B64">
+        <v>0.93186400000000003</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1.875928E-3</v>
+      </c>
+      <c r="D64">
+        <v>-0.93175799999999998</v>
+      </c>
+      <c r="E64" s="1">
+        <v>-1.814637E-3</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1.058549E-4</v>
+      </c>
+      <c r="G64" s="1">
+        <v>6.1291209999999994E-5</v>
+      </c>
+      <c r="H64">
+        <v>4.8908E-2</v>
+      </c>
+      <c r="I64">
+        <v>4.8908E-2</v>
+      </c>
+      <c r="J64">
+        <v>4.8908E-2</v>
+      </c>
+      <c r="K64">
+        <v>1.0000370000000001</v>
+      </c>
+      <c r="L64">
+        <v>-6.6631999999999997E-2</v>
+      </c>
+      <c r="M64">
+        <v>0.99992300000000001</v>
+      </c>
+      <c r="N64">
+        <v>-7.0388000000000006E-2</v>
+      </c>
+      <c r="O64">
+        <v>39.126778999999999</v>
+      </c>
+      <c r="P64" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q64">
+        <v>29</v>
+      </c>
+      <c r="R64">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>37</v>
+      </c>
+      <c r="B65">
+        <v>0.475659</v>
+      </c>
+      <c r="C65" s="1">
+        <v>6.6089540000000002E-4</v>
+      </c>
+      <c r="D65">
+        <v>-0.47558499999999998</v>
+      </c>
+      <c r="E65" s="1">
+        <v>-6.4288599999999996E-4</v>
+      </c>
+      <c r="F65" s="1">
+        <v>7.4096699999999998E-5</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1.8009419999999999E-5</v>
+      </c>
+      <c r="H65">
+        <v>2.4968000000000001E-2</v>
+      </c>
+      <c r="I65">
+        <v>2.4968000000000001E-2</v>
+      </c>
+      <c r="J65">
+        <v>2.4968000000000001E-2</v>
+      </c>
+      <c r="K65">
+        <v>0.99992300000000001</v>
+      </c>
+      <c r="L65">
+        <v>-7.0388000000000006E-2</v>
+      </c>
+      <c r="M65">
+        <v>0.99976699999999996</v>
+      </c>
+      <c r="N65">
+        <v>-7.2544999999999998E-2</v>
+      </c>
+      <c r="O65">
+        <v>49.935118000000003</v>
+      </c>
+      <c r="P65" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q65">
+        <v>30</v>
+      </c>
+      <c r="R65">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="O66">
+        <f>+SUM(O60:O65)/6</f>
+        <v>50.003209166666664</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E560657-1A49-40E8-9AF1-D61206733493}">
   <dimension ref="A1:R57"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="O69" sqref="O69"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13919,7 +15554,7 @@
       <c r="G21" t="s">
         <v>95</v>
       </c>
-      <c r="H21" t="s">
+      <c r="K21" t="s">
         <v>112</v>
       </c>
     </row>
@@ -13933,7 +15568,7 @@
       <c r="G22" t="s">
         <v>96</v>
       </c>
-      <c r="H22" t="s">
+      <c r="K22" t="s">
         <v>112</v>
       </c>
     </row>
@@ -13947,7 +15582,7 @@
       <c r="G23" t="s">
         <v>97</v>
       </c>
-      <c r="H23" t="s">
+      <c r="K23" t="s">
         <v>112</v>
       </c>
     </row>
@@ -13957,6 +15592,9 @@
       </c>
       <c r="G24" t="s">
         <v>98</v>
+      </c>
+      <c r="K24" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
